--- a/excel/users.xlsx
+++ b/excel/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Username</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>ibtisamanwar32@gmail.com</t>
+  </si>
+  <si>
+    <t>wefefwdq</t>
+  </si>
+  <si>
+    <t>qwerqew</t>
+  </si>
+  <si>
+    <t>qfeqed</t>
+  </si>
+  <si>
+    <t>ibtsisam@gmail.com</t>
+  </si>
+  <si>
+    <t>(1)Alcohol</t>
+  </si>
+  <si>
+    <t>Thu May 04 2023 06:39:12 GMT+0500 (Pakistan Standard Time)</t>
   </si>
 </sst>
 </file>
@@ -460,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -506,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1">
-        <v>45049.1736519213</v>
+        <v>45050.06903591435</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -532,7 +550,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1">
-        <v>45048.20265587963</v>
+        <v>45050.0386558912</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -565,6 +583,32 @@
       </c>
       <c r="H4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45050.06854570602</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
